--- a/521/data/temp.xlsx
+++ b/521/data/temp.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>kev</t>
   </si>
@@ -58,6 +59,39 @@
   </si>
   <si>
     <t>eu</t>
+  </si>
+  <si>
+    <t>hwhm</t>
+  </si>
+  <si>
+    <t>dhwhm</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>139xe</t>
+  </si>
+  <si>
+    <t>227ac</t>
+  </si>
+  <si>
+    <t>226ra</t>
+  </si>
+  <si>
+    <t>227ac, 227th</t>
+  </si>
+  <si>
+    <t>137cs</t>
+  </si>
+  <si>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>nuklid</t>
   </si>
 </sst>
 </file>
@@ -65,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -99,7 +133,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:L17"/>
     </sheetView>
   </sheetViews>
@@ -1242,4 +1276,275 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4564.2299999999996</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4155.3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>356.66500000000002</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.7427999999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.9429099999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.0097499999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>70.979380725226918</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.33385079452222921</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8227.44</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3455.68</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1184.01</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.0016099999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.4234300000000002</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.1081300000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>235.6281008018054</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.45580203352935861</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6142.21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2661.42</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1755.44</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.20123</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.8330799999999998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.30704</v>
+      </c>
+      <c r="J7" s="2">
+        <v>349.34755050339209</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.56319416185269555</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4554.8100000000004</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2047.74</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2922.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.52372</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.6348800000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>581.60245656141103</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.77045374081783613</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6257.66</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2251.42</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3053.85</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.17269</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3.4003700000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.22176</v>
+      </c>
+      <c r="J9" s="2">
+        <v>607.74222821901287</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.77224259266754691</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1676.55</v>
+      </c>
+      <c r="E10" s="3">
+        <v>287.02</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3317.68</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.75101799999999996</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.4787699999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.84828300000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>660.24665118380221</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.94182058020762072</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>19091.599999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3229.89</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7351.51</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.81850100000000003</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.6313300000000002</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.730993</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1463.0132678993255</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.5645449459317324</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>